--- a/output_by_subject/MA523.xlsx
+++ b/output_by_subject/MA523.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,6 +1653,94 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2012MA23</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MA523</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2012MA22</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MA523</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2012MA21</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MA523</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2012MA17</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MA523</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
